--- a/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,57 +452,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>312</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>64</v>
       </c>
     </row>
@@ -517,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,25 +555,41 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>528</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B6" t="n">
         <v>72</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,22 +506,6 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -533,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,14 +569,6 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -567,6 +568,257 @@
       </c>
       <c r="B5" t="n">
         <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.76756608461403</v>
+      </c>
+      <c r="D2" t="n">
+        <v>170.0568341045128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.240868695654157</v>
+      </c>
+      <c r="D3" t="n">
+        <v>190.7474990394152</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>112</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.217988793849728</v>
+      </c>
+      <c r="D4" t="n">
+        <v>210.2977667299166</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>122</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.07366371618866</v>
+      </c>
+      <c r="D5" t="n">
+        <v>216.3743018688133</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>127</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.19186171036166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>227.0928036411529</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>132</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.54466270261188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>232.5940144352242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.6833564892454</v>
+      </c>
+      <c r="D8" t="n">
+        <v>239.2203612118289</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>142</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43.68986885525967</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.0515699028344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>147</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39.12479491894153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>246.8446709757068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>153</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54.20289978780182</v>
+      </c>
+      <c r="D11" t="n">
+        <v>260.4081525675414</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>158</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63.51831085392725</v>
+      </c>
+      <c r="D12" t="n">
+        <v>258.4203716305223</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>163</v>
+      </c>
+      <c r="C13" t="n">
+        <v>65.26969408152669</v>
+      </c>
+      <c r="D13" t="n">
+        <v>264.3614771643931</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>168</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67.96042495121195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>261.9981817611309</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>173</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64.8438758861471</v>
+      </c>
+      <c r="D15" t="n">
+        <v>271.6408429529968</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>178</v>
+      </c>
+      <c r="C16" t="n">
+        <v>78.57830168534699</v>
+      </c>
+      <c r="D16" t="n">
+        <v>276.4950467743939</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMFYQ2JL_po_data.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,16 +600,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -618,12 +608,6 @@
       <c r="B2" t="n">
         <v>72</v>
       </c>
-      <c r="C2" t="n">
-        <v>-31.76756608461403</v>
-      </c>
-      <c r="D2" t="n">
-        <v>170.0568341045128</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -632,12 +616,6 @@
       <c r="B3" t="n">
         <v>97</v>
       </c>
-      <c r="C3" t="n">
-        <v>-4.240868695654157</v>
-      </c>
-      <c r="D3" t="n">
-        <v>190.7474990394152</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -646,12 +624,6 @@
       <c r="B4" t="n">
         <v>112</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.217988793849728</v>
-      </c>
-      <c r="D4" t="n">
-        <v>210.2977667299166</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -660,12 +632,6 @@
       <c r="B5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="n">
-        <v>22.07366371618866</v>
-      </c>
-      <c r="D5" t="n">
-        <v>216.3743018688133</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -674,12 +640,6 @@
       <c r="B6" t="n">
         <v>127</v>
       </c>
-      <c r="C6" t="n">
-        <v>25.19186171036166</v>
-      </c>
-      <c r="D6" t="n">
-        <v>227.0928036411529</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -688,12 +648,6 @@
       <c r="B7" t="n">
         <v>132</v>
       </c>
-      <c r="C7" t="n">
-        <v>31.54466270261188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>232.5940144352242</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -702,12 +656,6 @@
       <c r="B8" t="n">
         <v>137</v>
       </c>
-      <c r="C8" t="n">
-        <v>35.6833564892454</v>
-      </c>
-      <c r="D8" t="n">
-        <v>239.2203612118289</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -716,12 +664,6 @@
       <c r="B9" t="n">
         <v>142</v>
       </c>
-      <c r="C9" t="n">
-        <v>43.68986885525967</v>
-      </c>
-      <c r="D9" t="n">
-        <v>240.0515699028344</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -730,12 +672,6 @@
       <c r="B10" t="n">
         <v>147</v>
       </c>
-      <c r="C10" t="n">
-        <v>39.12479491894153</v>
-      </c>
-      <c r="D10" t="n">
-        <v>246.8446709757068</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -744,12 +680,6 @@
       <c r="B11" t="n">
         <v>153</v>
       </c>
-      <c r="C11" t="n">
-        <v>54.20289978780182</v>
-      </c>
-      <c r="D11" t="n">
-        <v>260.4081525675414</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -758,12 +688,6 @@
       <c r="B12" t="n">
         <v>158</v>
       </c>
-      <c r="C12" t="n">
-        <v>63.51831085392725</v>
-      </c>
-      <c r="D12" t="n">
-        <v>258.4203716305223</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -772,12 +696,6 @@
       <c r="B13" t="n">
         <v>163</v>
       </c>
-      <c r="C13" t="n">
-        <v>65.26969408152669</v>
-      </c>
-      <c r="D13" t="n">
-        <v>264.3614771643931</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -786,12 +704,6 @@
       <c r="B14" t="n">
         <v>168</v>
       </c>
-      <c r="C14" t="n">
-        <v>67.96042495121195</v>
-      </c>
-      <c r="D14" t="n">
-        <v>261.9981817611309</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -800,12 +712,6 @@
       <c r="B15" t="n">
         <v>173</v>
       </c>
-      <c r="C15" t="n">
-        <v>64.8438758861471</v>
-      </c>
-      <c r="D15" t="n">
-        <v>271.6408429529968</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -813,12 +719,6 @@
       </c>
       <c r="B16" t="n">
         <v>178</v>
-      </c>
-      <c r="C16" t="n">
-        <v>78.57830168534699</v>
-      </c>
-      <c r="D16" t="n">
-        <v>276.4950467743939</v>
       </c>
     </row>
   </sheetData>
